--- a/feedback_forms/testing_versions/generic_operator_feedback_v002_test_01.xlsx
+++ b/feedback_forms/testing_versions/generic_operator_feedback_v002_test_01.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\testing_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EA5948-A98F-41AB-B480-5280642E3621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4A1DCD-099D-4887-B247-77BD2500DFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="eTmHV9FPvN3grmcGJFXGyS3KIZLr23PQtpGWgJE63akcmYaRvtZ8cXyaE0VlsO5eUHSyz4RBPTOFgwGLEQvwNQ==" workbookSaltValue="aPnAUsPuaNUy1VIOFRkXJw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="4673" yWindow="1413" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="5353" yWindow="2093" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="177">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -990,6 +990,15 @@
   <si>
     <t>Going forward the sector is 'Generic' and the schema is 'generic_v01_00'
 There may be previous version v002 files that were created with different sector and schema numbers, those may need to be manually changed to the correct sector/schema before ingested into the portal website.</t>
+  </si>
+  <si>
+    <t>200-02</t>
+  </si>
+  <si>
+    <t>555-555-5555</t>
+  </si>
+  <si>
+    <t>me@email.com</t>
   </si>
 </sst>
 </file>
@@ -2501,9 +2510,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -2809,7 +2816,9 @@
         <v>15</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="53"/>
+      <c r="D24" s="53">
+        <v>447</v>
+      </c>
       <c r="E24" s="25"/>
     </row>
     <row r="25" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
@@ -2817,7 +2826,9 @@
         <v>16</v>
       </c>
       <c r="C25" s="25"/>
-      <c r="D25" s="54"/>
+      <c r="D25" s="54">
+        <v>45468</v>
+      </c>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
@@ -2825,7 +2836,9 @@
         <v>17</v>
       </c>
       <c r="C26" s="25"/>
-      <c r="D26" s="53"/>
+      <c r="D26" s="53">
+        <v>35.321100000000001</v>
+      </c>
       <c r="E26" s="46"/>
       <c r="G26" s="26"/>
     </row>
@@ -2834,7 +2847,9 @@
         <v>18</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="53"/>
+      <c r="D27" s="53">
+        <v>-119.5808</v>
+      </c>
       <c r="E27" s="46"/>
       <c r="G27" s="26"/>
     </row>
@@ -2843,7 +2858,9 @@
         <v>19</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="55"/>
+      <c r="D28" s="55" t="s">
+        <v>174</v>
+      </c>
       <c r="E28" s="46"/>
       <c r="F28" s="40"/>
       <c r="G28" s="26"/>
@@ -2897,7 +2914,10 @@
         <v>20</v>
       </c>
       <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
+      <c r="D32" s="41" t="str">
+        <f>LEFT(B32, 50)</f>
+        <v>Q1.  Facility Name</v>
+      </c>
       <c r="E32" s="43"/>
       <c r="G32" s="26"/>
     </row>
@@ -2906,7 +2926,10 @@
         <v>21</v>
       </c>
       <c r="C33" s="43"/>
-      <c r="D33" s="41"/>
+      <c r="D33" s="41" t="str">
+        <f>LEFT(B33, 50)</f>
+        <v>Q2.  Facility ID (if applicable)</v>
+      </c>
       <c r="E33" s="43"/>
       <c r="G33" s="26"/>
     </row>
@@ -2915,7 +2938,10 @@
         <v>22</v>
       </c>
       <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
+      <c r="D34" s="41" t="str">
+        <f>LEFT(B34, 50)</f>
+        <v>Q3.  Contact Name</v>
+      </c>
       <c r="E34" s="43"/>
       <c r="G34" s="26"/>
     </row>
@@ -2924,7 +2950,9 @@
         <v>23</v>
       </c>
       <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
+      <c r="D35" s="41" t="s">
+        <v>175</v>
+      </c>
       <c r="E35" s="43"/>
       <c r="G35" s="26"/>
     </row>
@@ -2933,7 +2961,9 @@
         <v>24</v>
       </c>
       <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
+      <c r="D36" s="41" t="s">
+        <v>176</v>
+      </c>
       <c r="E36" s="43"/>
       <c r="G36" s="26"/>
     </row>
@@ -2987,7 +3017,7 @@
       </c>
       <c r="C40" s="43"/>
       <c r="D40" s="57" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G40" s="26"/>
     </row>
@@ -2996,7 +3026,10 @@
         <v>27</v>
       </c>
       <c r="C41" s="40"/>
-      <c r="D41" s="51"/>
+      <c r="D41" s="51" t="str">
+        <f t="shared" ref="D41:D44" si="0">LEFT(B41, 50)</f>
+        <v>Q7.  If applicable, what was the date of owner/ope</v>
+      </c>
       <c r="E41" s="27"/>
       <c r="G41" s="26"/>
     </row>
@@ -3005,7 +3038,10 @@
         <v>28</v>
       </c>
       <c r="C42" s="43"/>
-      <c r="D42" s="41"/>
+      <c r="D42" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Q8.  If applicable, what was the instrument used t</v>
+      </c>
       <c r="G42" s="26"/>
     </row>
     <row r="43" spans="2:33" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
@@ -3013,7 +3049,10 @@
         <v>29</v>
       </c>
       <c r="C43" s="43"/>
-      <c r="D43" s="41"/>
+      <c r="D43" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Q9.  If applicable, provide any additional notes o</v>
+      </c>
       <c r="G43" s="26"/>
     </row>
     <row r="44" spans="2:33" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
@@ -3021,7 +3060,10 @@
         <v>30</v>
       </c>
       <c r="C44" s="43"/>
-      <c r="D44" s="41"/>
+      <c r="D44" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Q10.  If applicable, please describe any events or</v>
+      </c>
       <c r="G44" s="26"/>
     </row>
     <row r="45" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
@@ -3073,7 +3115,10 @@
       <c r="B48" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="41"/>
+      <c r="D48" s="41" t="str">
+        <f t="shared" ref="D48:D50" si="1">LEFT(B48, 50)</f>
+        <v>Q11:  Maximum concentration of methane leak (in pp</v>
+      </c>
       <c r="G48" s="26"/>
       <c r="AG48" s="20" t="s">
         <v>0</v>
@@ -3084,7 +3129,10 @@
         <v>32</v>
       </c>
       <c r="C49" s="20"/>
-      <c r="D49" s="41"/>
+      <c r="D49" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>Q12.  Please provide a revised latitude if the lea</v>
+      </c>
       <c r="E49" s="20"/>
       <c r="G49" s="26"/>
     </row>
@@ -3093,7 +3141,10 @@
         <v>33</v>
       </c>
       <c r="C50" s="20"/>
-      <c r="D50" s="41"/>
+      <c r="D50" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>Q13.  Please provide a revised longitude if the le</v>
+      </c>
       <c r="E50" s="20"/>
       <c r="G50" s="26"/>
     </row>
@@ -3103,7 +3154,7 @@
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="57" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E51" s="20"/>
       <c r="G51" s="26"/>
@@ -3113,7 +3164,10 @@
         <v>150</v>
       </c>
       <c r="C52" s="20"/>
-      <c r="D52" s="41"/>
+      <c r="D52" s="41" t="str">
+        <f>LEFT(B52, 50)</f>
+        <v>Q15.  Please provide any additional information ab</v>
+      </c>
       <c r="E52" s="20"/>
       <c r="G52" s="26"/>
     </row>
@@ -3165,28 +3219,40 @@
       <c r="B56" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="41"/>
+      <c r="D56" s="41" t="str">
+        <f t="shared" ref="D56:D59" si="2">LEFT(B56, 50)</f>
+        <v>Q16.  Describe any corrective actions taken.</v>
+      </c>
       <c r="G56" s="26"/>
     </row>
     <row r="57" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B57" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="51"/>
+      <c r="D57" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>Q17.  Repair date.</v>
+      </c>
       <c r="G57" s="26"/>
     </row>
     <row r="58" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B58" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="51"/>
+      <c r="D58" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>Q18.  Re-monitored date.</v>
+      </c>
       <c r="G58" s="26"/>
     </row>
     <row r="59" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B59" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="41"/>
+      <c r="D59" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>Q19.  Re-monitored methane concentration after rep</v>
+      </c>
       <c r="G59" s="26"/>
     </row>
     <row r="60" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
@@ -3202,7 +3268,10 @@
         <v>38</v>
       </c>
       <c r="C63" s="31"/>
-      <c r="D63" s="41"/>
+      <c r="D63" s="41" t="str">
+        <f>LEFT(B63, 50)</f>
+        <v>Q20.  Additional notes or comments.</v>
+      </c>
       <c r="G63" s="26"/>
     </row>
   </sheetData>
@@ -5476,17 +5545,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -5721,6 +5779,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5731,17 +5800,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5760,6 +5818,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
